--- a/public/doc_xls_export/report_absensi_tukin.xlsx
+++ b/public/doc_xls_export/report_absensi_tukin.xlsx
@@ -619,7 +619,7 @@
       </c>
       <c s="5" t="inlineStr">
         <is>
-          <t>2013-07-01</t>
+          <t>2013-04-01</t>
         </is>
       </c>
       <c s="5" t="inlineStr">
@@ -644,17 +644,17 @@
       </c>
       <c s="5" t="inlineStr">
         <is>
-          <t/>
-        </is>
-      </c>
-      <c s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c s="7" t="inlineStr">
-        <is>
-          <t>1</t>
+          <t>16:43</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr">
+        <is>
+          <t>01:31</t>
+        </is>
+      </c>
+      <c s="7" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
       <c s="6" t="inlineStr">
@@ -664,27 +664,27 @@
       </c>
       <c s="8" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c s="7" t="inlineStr">
-        <is>
-          <t>xxx</t>
+          <t/>
+        </is>
+      </c>
+      <c s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c s="7" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
       <c s="9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t/>
         </is>
       </c>
       <c s="3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t/>
         </is>
       </c>
     </row>
@@ -701,7 +701,7 @@
       </c>
       <c s="5" t="inlineStr">
         <is>
-          <t>2013-07-02</t>
+          <t>2013-04-02</t>
         </is>
       </c>
       <c s="5" t="inlineStr">
@@ -736,7 +736,7 @@
       </c>
       <c s="7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t/>
         </is>
       </c>
       <c s="6" t="inlineStr">
@@ -746,12 +746,12 @@
       </c>
       <c s="8" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr">
-        <is>
-          <t/>
+          <t/>
+        </is>
+      </c>
+      <c s="5" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
       <c s="7" t="inlineStr">
@@ -761,12 +761,12 @@
       </c>
       <c s="9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t/>
         </is>
       </c>
       <c s="3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t/>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c s="5" t="inlineStr">
         <is>
-          <t>2013-07-03</t>
+          <t>2013-04-03</t>
         </is>
       </c>
       <c s="5" t="inlineStr">
@@ -808,17 +808,17 @@
       </c>
       <c s="5" t="inlineStr">
         <is>
-          <t/>
-        </is>
-      </c>
-      <c s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c s="7" t="inlineStr">
-        <is>
-          <t>0</t>
+          <t>16:45</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr">
+        <is>
+          <t>01:31</t>
+        </is>
+      </c>
+      <c s="7" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
       <c s="6" t="inlineStr">
@@ -828,7 +828,7 @@
       </c>
       <c s="8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t/>
         </is>
       </c>
       <c s="5" t="inlineStr">
@@ -843,12 +843,12 @@
       </c>
       <c s="9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t/>
         </is>
       </c>
       <c s="3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t/>
         </is>
       </c>
     </row>
@@ -865,7 +865,7 @@
       </c>
       <c s="5" t="inlineStr">
         <is>
-          <t>2013-07-04</t>
+          <t>2013-04-04</t>
         </is>
       </c>
       <c s="5" t="inlineStr">
@@ -900,7 +900,7 @@
       </c>
       <c s="7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t/>
         </is>
       </c>
       <c s="6" t="inlineStr">
@@ -910,12 +910,12 @@
       </c>
       <c s="8" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr">
-        <is>
-          <t/>
+          <t/>
+        </is>
+      </c>
+      <c s="5" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
       <c s="7" t="inlineStr">
@@ -925,12 +925,12 @@
       </c>
       <c s="9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t/>
         </is>
       </c>
       <c s="3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t/>
         </is>
       </c>
     </row>
@@ -947,7 +947,7 @@
       </c>
       <c s="5" t="inlineStr">
         <is>
-          <t>2013-07-05</t>
+          <t>2013-04-05</t>
         </is>
       </c>
       <c s="5" t="inlineStr">
@@ -982,7 +982,7 @@
       </c>
       <c s="7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t/>
         </is>
       </c>
       <c s="6" t="inlineStr">
@@ -992,12 +992,12 @@
       </c>
       <c s="8" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr">
-        <is>
-          <t/>
+          <t/>
+        </is>
+      </c>
+      <c s="5" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
       <c s="7" t="inlineStr">
@@ -1007,12 +1007,12 @@
       </c>
       <c s="9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t/>
         </is>
       </c>
       <c s="3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t/>
         </is>
       </c>
     </row>
@@ -1029,7 +1029,7 @@
       </c>
       <c s="5" t="inlineStr">
         <is>
-          <t>2013-07-08</t>
+          <t>2013-04-08</t>
         </is>
       </c>
       <c s="5" t="inlineStr">
@@ -1064,7 +1064,7 @@
       </c>
       <c s="7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t/>
         </is>
       </c>
       <c s="6" t="inlineStr">
@@ -1074,12 +1074,12 @@
       </c>
       <c s="8" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr">
-        <is>
-          <t/>
+          <t/>
+        </is>
+      </c>
+      <c s="5" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
       <c s="7" t="inlineStr">
@@ -1089,12 +1089,12 @@
       </c>
       <c s="9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t/>
         </is>
       </c>
       <c s="3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t/>
         </is>
       </c>
     </row>
@@ -1111,7 +1111,7 @@
       </c>
       <c s="5" t="inlineStr">
         <is>
-          <t>2013-07-09</t>
+          <t>2013-04-09</t>
         </is>
       </c>
       <c s="5" t="inlineStr">
@@ -1146,7 +1146,7 @@
       </c>
       <c s="7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t/>
         </is>
       </c>
       <c s="6" t="inlineStr">
@@ -1156,12 +1156,12 @@
       </c>
       <c s="8" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr">
-        <is>
-          <t/>
+          <t/>
+        </is>
+      </c>
+      <c s="5" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
       <c s="7" t="inlineStr">
@@ -1171,12 +1171,12 @@
       </c>
       <c s="9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t/>
         </is>
       </c>
       <c s="3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t/>
         </is>
       </c>
     </row>
@@ -1193,12 +1193,12 @@
       </c>
       <c s="5" t="inlineStr">
         <is>
-          <t>2013-07-10</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr">
-        <is>
-          <t>Puasa 1</t>
+          <t>2013-04-10</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
         </is>
       </c>
       <c s="5" t="inlineStr">
@@ -1208,27 +1208,27 @@
       </c>
       <c s="5" t="inlineStr">
         <is>
-          <t>15:00</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c s="7" t="inlineStr">
-        <is>
-          <t>0</t>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c s="7" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
       <c s="6" t="inlineStr">
@@ -1238,12 +1238,12 @@
       </c>
       <c s="8" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr">
-        <is>
-          <t/>
+          <t/>
+        </is>
+      </c>
+      <c s="5" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
       <c s="7" t="inlineStr">
@@ -1253,12 +1253,12 @@
       </c>
       <c s="9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t/>
         </is>
       </c>
       <c s="3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t/>
         </is>
       </c>
     </row>
@@ -1275,12 +1275,12 @@
       </c>
       <c s="5" t="inlineStr">
         <is>
-          <t>2013-07-11</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr">
-        <is>
-          <t>Puasa 1</t>
+          <t>2013-04-11</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
         </is>
       </c>
       <c s="5" t="inlineStr">
@@ -1290,27 +1290,27 @@
       </c>
       <c s="5" t="inlineStr">
         <is>
-          <t>15:00</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c s="7" t="inlineStr">
-        <is>
-          <t>0</t>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c s="7" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
       <c s="6" t="inlineStr">
@@ -1320,12 +1320,12 @@
       </c>
       <c s="8" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr">
-        <is>
-          <t/>
+          <t/>
+        </is>
+      </c>
+      <c s="5" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
       <c s="7" t="inlineStr">
@@ -1335,12 +1335,12 @@
       </c>
       <c s="9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t/>
         </is>
       </c>
       <c s="3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t/>
         </is>
       </c>
     </row>
@@ -1357,12 +1357,12 @@
       </c>
       <c s="5" t="inlineStr">
         <is>
-          <t>2013-07-12</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr">
-        <is>
-          <t>Puasa 2</t>
+          <t>2013-04-12</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr">
+        <is>
+          <t>JUM`AT</t>
         </is>
       </c>
       <c s="5" t="inlineStr">
@@ -1372,27 +1372,27 @@
       </c>
       <c s="5" t="inlineStr">
         <is>
-          <t>15:30</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c s="7" t="inlineStr">
-        <is>
-          <t>0</t>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c s="7" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
       <c s="6" t="inlineStr">
@@ -1402,12 +1402,12 @@
       </c>
       <c s="8" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr">
-        <is>
-          <t/>
+          <t/>
+        </is>
+      </c>
+      <c s="5" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
       <c s="7" t="inlineStr">
@@ -1417,12 +1417,12 @@
       </c>
       <c s="9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t/>
         </is>
       </c>
       <c s="3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t/>
         </is>
       </c>
     </row>
@@ -1439,12 +1439,12 @@
       </c>
       <c s="5" t="inlineStr">
         <is>
-          <t>2013-07-15</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr">
-        <is>
-          <t>Puasa 1</t>
+          <t>2013-04-15</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
         </is>
       </c>
       <c s="5" t="inlineStr">
@@ -1454,27 +1454,27 @@
       </c>
       <c s="5" t="inlineStr">
         <is>
-          <t>15:00</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c s="7" t="inlineStr">
-        <is>
-          <t>0</t>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c s="7" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
       <c s="6" t="inlineStr">
@@ -1484,12 +1484,12 @@
       </c>
       <c s="8" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr">
-        <is>
-          <t/>
+          <t/>
+        </is>
+      </c>
+      <c s="5" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
       <c s="7" t="inlineStr">
@@ -1499,12 +1499,12 @@
       </c>
       <c s="9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t/>
         </is>
       </c>
       <c s="3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t/>
         </is>
       </c>
     </row>
@@ -1521,12 +1521,12 @@
       </c>
       <c s="5" t="inlineStr">
         <is>
-          <t>2013-07-16</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr">
-        <is>
-          <t>Puasa 1</t>
+          <t>2013-04-16</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
         </is>
       </c>
       <c s="5" t="inlineStr">
@@ -1536,27 +1536,27 @@
       </c>
       <c s="5" t="inlineStr">
         <is>
-          <t>15:00</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c s="7" t="inlineStr">
-        <is>
-          <t>0</t>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c s="7" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
       <c s="6" t="inlineStr">
@@ -1566,12 +1566,12 @@
       </c>
       <c s="8" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr">
-        <is>
-          <t/>
+          <t/>
+        </is>
+      </c>
+      <c s="5" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
       <c s="7" t="inlineStr">
@@ -1581,12 +1581,12 @@
       </c>
       <c s="9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t/>
         </is>
       </c>
       <c s="3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t/>
         </is>
       </c>
     </row>
@@ -1603,12 +1603,12 @@
       </c>
       <c s="5" t="inlineStr">
         <is>
-          <t>2013-07-17</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr">
-        <is>
-          <t>Puasa 1</t>
+          <t>2013-04-17</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
         </is>
       </c>
       <c s="5" t="inlineStr">
@@ -1618,27 +1618,27 @@
       </c>
       <c s="5" t="inlineStr">
         <is>
-          <t>15:00</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c s="7" t="inlineStr">
-        <is>
-          <t>0</t>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c s="7" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
       <c s="6" t="inlineStr">
@@ -1648,12 +1648,12 @@
       </c>
       <c s="8" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr">
-        <is>
-          <t/>
+          <t/>
+        </is>
+      </c>
+      <c s="5" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
       <c s="7" t="inlineStr">
@@ -1663,12 +1663,12 @@
       </c>
       <c s="9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t/>
         </is>
       </c>
       <c s="3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t/>
         </is>
       </c>
     </row>
@@ -1685,12 +1685,12 @@
       </c>
       <c s="5" t="inlineStr">
         <is>
-          <t>2013-07-18</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr">
-        <is>
-          <t>Puasa 1</t>
+          <t>2013-04-18</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
         </is>
       </c>
       <c s="5" t="inlineStr">
@@ -1700,27 +1700,27 @@
       </c>
       <c s="5" t="inlineStr">
         <is>
-          <t>15:00</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c s="7" t="inlineStr">
-        <is>
-          <t>0</t>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c s="7" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
       <c s="6" t="inlineStr">
@@ -1730,12 +1730,12 @@
       </c>
       <c s="8" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr">
-        <is>
-          <t/>
+          <t/>
+        </is>
+      </c>
+      <c s="5" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
       <c s="7" t="inlineStr">
@@ -1745,12 +1745,12 @@
       </c>
       <c s="9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t/>
         </is>
       </c>
       <c s="3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t/>
         </is>
       </c>
     </row>
@@ -1767,12 +1767,12 @@
       </c>
       <c s="5" t="inlineStr">
         <is>
-          <t>2013-07-19</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr">
-        <is>
-          <t>Puasa 2</t>
+          <t>2013-04-19</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr">
+        <is>
+          <t>JUM`AT</t>
         </is>
       </c>
       <c s="5" t="inlineStr">
@@ -1782,27 +1782,27 @@
       </c>
       <c s="5" t="inlineStr">
         <is>
-          <t>15:30</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c s="7" t="inlineStr">
-        <is>
-          <t>0</t>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c s="7" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
       <c s="6" t="inlineStr">
@@ -1812,12 +1812,12 @@
       </c>
       <c s="8" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr">
-        <is>
-          <t/>
+          <t/>
+        </is>
+      </c>
+      <c s="5" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
       <c s="7" t="inlineStr">
@@ -1827,12 +1827,12 @@
       </c>
       <c s="9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t/>
         </is>
       </c>
       <c s="3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t/>
         </is>
       </c>
     </row>
@@ -1849,12 +1849,12 @@
       </c>
       <c s="5" t="inlineStr">
         <is>
-          <t>2013-07-22</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr">
-        <is>
-          <t>Puasa 1</t>
+          <t>2013-04-22</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
         </is>
       </c>
       <c s="5" t="inlineStr">
@@ -1864,27 +1864,27 @@
       </c>
       <c s="5" t="inlineStr">
         <is>
-          <t>15:00</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c s="7" t="inlineStr">
-        <is>
-          <t>0</t>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c s="7" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
       <c s="6" t="inlineStr">
@@ -1894,12 +1894,12 @@
       </c>
       <c s="8" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr">
-        <is>
-          <t/>
+          <t/>
+        </is>
+      </c>
+      <c s="5" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
       <c s="7" t="inlineStr">
@@ -1909,12 +1909,12 @@
       </c>
       <c s="9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t/>
         </is>
       </c>
       <c s="3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t/>
         </is>
       </c>
     </row>
@@ -1931,12 +1931,12 @@
       </c>
       <c s="5" t="inlineStr">
         <is>
-          <t>2013-07-23</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr">
-        <is>
-          <t>Puasa 1</t>
+          <t>2013-04-23</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
         </is>
       </c>
       <c s="5" t="inlineStr">
@@ -1946,27 +1946,27 @@
       </c>
       <c s="5" t="inlineStr">
         <is>
-          <t>15:00</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c s="7" t="inlineStr">
-        <is>
-          <t>0</t>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c s="7" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
       <c s="6" t="inlineStr">
@@ -1976,12 +1976,12 @@
       </c>
       <c s="8" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr">
-        <is>
-          <t/>
+          <t/>
+        </is>
+      </c>
+      <c s="5" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
       <c s="7" t="inlineStr">
@@ -1991,12 +1991,12 @@
       </c>
       <c s="9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t/>
         </is>
       </c>
       <c s="3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t/>
         </is>
       </c>
     </row>
@@ -2013,12 +2013,12 @@
       </c>
       <c s="5" t="inlineStr">
         <is>
-          <t>2013-07-24</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr">
-        <is>
-          <t>Puasa 1</t>
+          <t>2013-04-24</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
         </is>
       </c>
       <c s="5" t="inlineStr">
@@ -2028,27 +2028,27 @@
       </c>
       <c s="5" t="inlineStr">
         <is>
-          <t>15:00</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c s="7" t="inlineStr">
-        <is>
-          <t>0</t>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c s="7" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
       <c s="6" t="inlineStr">
@@ -2058,12 +2058,12 @@
       </c>
       <c s="8" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr">
-        <is>
-          <t/>
+          <t/>
+        </is>
+      </c>
+      <c s="5" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
       <c s="7" t="inlineStr">
@@ -2073,12 +2073,12 @@
       </c>
       <c s="9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t/>
         </is>
       </c>
       <c s="3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t/>
         </is>
       </c>
     </row>
@@ -2095,12 +2095,12 @@
       </c>
       <c s="5" t="inlineStr">
         <is>
-          <t>2013-07-25</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr">
-        <is>
-          <t>Puasa 1</t>
+          <t>2013-04-25</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
         </is>
       </c>
       <c s="5" t="inlineStr">
@@ -2110,27 +2110,27 @@
       </c>
       <c s="5" t="inlineStr">
         <is>
-          <t>15:00</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c s="7" t="inlineStr">
-        <is>
-          <t>0</t>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c s="7" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
       <c s="6" t="inlineStr">
@@ -2140,12 +2140,12 @@
       </c>
       <c s="8" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr">
-        <is>
-          <t/>
+          <t/>
+        </is>
+      </c>
+      <c s="5" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
       <c s="7" t="inlineStr">
@@ -2155,12 +2155,12 @@
       </c>
       <c s="9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t/>
         </is>
       </c>
       <c s="3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t/>
         </is>
       </c>
     </row>
@@ -2177,12 +2177,12 @@
       </c>
       <c s="5" t="inlineStr">
         <is>
-          <t>2013-07-26</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr">
-        <is>
-          <t>Puasa 2</t>
+          <t>2013-04-26</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr">
+        <is>
+          <t>JUM`AT</t>
         </is>
       </c>
       <c s="5" t="inlineStr">
@@ -2192,27 +2192,27 @@
       </c>
       <c s="5" t="inlineStr">
         <is>
-          <t>15:30</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c s="7" t="inlineStr">
-        <is>
-          <t>0</t>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c s="7" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
       <c s="6" t="inlineStr">
@@ -2222,12 +2222,12 @@
       </c>
       <c s="8" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr">
-        <is>
-          <t/>
+          <t/>
+        </is>
+      </c>
+      <c s="5" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
       <c s="7" t="inlineStr">
@@ -2237,12 +2237,12 @@
       </c>
       <c s="9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t/>
         </is>
       </c>
       <c s="3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t/>
         </is>
       </c>
     </row>
@@ -2259,12 +2259,12 @@
       </c>
       <c s="5" t="inlineStr">
         <is>
-          <t>2013-07-29</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr">
-        <is>
-          <t>Puasa 1</t>
+          <t>2013-04-29</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
         </is>
       </c>
       <c s="5" t="inlineStr">
@@ -2274,27 +2274,27 @@
       </c>
       <c s="5" t="inlineStr">
         <is>
-          <t>15:00</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c s="7" t="inlineStr">
-        <is>
-          <t>0</t>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c s="7" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
       <c s="6" t="inlineStr">
@@ -2304,12 +2304,12 @@
       </c>
       <c s="8" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr">
-        <is>
-          <t/>
+          <t/>
+        </is>
+      </c>
+      <c s="5" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
       <c s="7" t="inlineStr">
@@ -2319,12 +2319,12 @@
       </c>
       <c s="9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t/>
         </is>
       </c>
       <c s="3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t/>
         </is>
       </c>
     </row>
@@ -2341,12 +2341,12 @@
       </c>
       <c s="5" t="inlineStr">
         <is>
-          <t>2013-07-30</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr">
-        <is>
-          <t>Puasa 1</t>
+          <t>2013-04-30</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
         </is>
       </c>
       <c s="5" t="inlineStr">
@@ -2356,27 +2356,27 @@
       </c>
       <c s="5" t="inlineStr">
         <is>
-          <t>15:00</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c s="7" t="inlineStr">
-        <is>
-          <t>0</t>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c s="7" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
       <c s="6" t="inlineStr">
@@ -2386,12 +2386,12 @@
       </c>
       <c s="8" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr">
-        <is>
-          <t/>
+          <t/>
+        </is>
+      </c>
+      <c s="5" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
       <c s="7" t="inlineStr">
@@ -2401,94 +2401,12 @@
       </c>
       <c s="9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t/>
         </is>
       </c>
       <c s="3" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row spans="1:16" x14ac:dyDescent="0.25">
-      <c s="5" t="inlineStr">
-        <is>
-          <t>195611071979031001</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr">
-        <is>
-          <t>Drs. Halim Nababan, MM</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr">
-        <is>
-          <t>2013-07-31</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr">
-        <is>
-          <t>Puasa 1</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr">
-        <is>
-          <t>08:00</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c s="7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c s="8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c s="9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c s="3" t="inlineStr">
-        <is>
-          <t>0</t>
+          <t/>
         </is>
       </c>
     </row>
